--- a/data/trans_bre/P15A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,58%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; -2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; -0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; -0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,07; -38,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,23; -5,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,09; -16,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 0,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; -0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; -0,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 0,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,51; 7,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,31; -17,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,24; -5,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,79; 40,82</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,93; 84,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,81; 63,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,52; 15,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,05; 117,14</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 0,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 3,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 0,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,07; 8,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,73; 458,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,06; 95,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,57; 13,49</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,49%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 2,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,82; 163,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 1002,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 1260,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 369,29</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,87%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 4,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 3,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 4,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 3,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,34; 348,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,17; 168,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,91; 337,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,43; 235,18</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; -4,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,15; 26,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 30,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 66,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>44,24%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,48</t>
+          <t>-2,57; 4,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-60,88%</t>
+          <t>-64,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,07</t>
+          <t>-4,64; -0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,79; 40,82</t>
+          <t>-91,82; 24,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-9,42%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,18</t>
+          <t>-1,83; 1,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 117,14</t>
+          <t>-61,2; 120,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>-32,78%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,23</t>
+          <t>-2,48; 1,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,57; 13,49</t>
+          <t>-65,33; 89,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100,49%</t>
+          <t>100,36%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,38</t>
+          <t>-0,09; 2,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 369,29</t>
+          <t>-9,35; 370,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>122,42%</t>
+          <t>67,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>123,06%</t>
+          <t>200,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>109,87%</t>
+          <t>59,1%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,61</t>
+          <t>-1,26; 3,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,52</t>
+          <t>-1,78; 3,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,59</t>
+          <t>0,74; 5,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,87</t>
+          <t>-1,44; 2,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 348,47</t>
+          <t>-55,04; 446,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 168,31</t>
+          <t>-47,81; 257,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,91; 337,54</t>
+          <t>14,71; 848,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 235,18</t>
+          <t>-53,73; 235,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>139,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>45,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>108,33%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,07; 7,43</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 4,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 5,39</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 5,63</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 668,7</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-39,09; 255,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 272,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 283,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-26,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,83; -0,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,96; 0,65</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,9; 0,66</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-43,63; -4,37</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-28,15; 26,38</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-30,35; 30,67</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 66,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-17,1; 71,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P15A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -2,24</t>
+          <t>-7,2; -1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,28</t>
+          <t>-5,09; -0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; -0,7</t>
+          <t>-5,31; -0,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,8</t>
+          <t>-2,61; 4,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,07; -38,14</t>
+          <t>-83,43; -33,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,23; -5,96</t>
+          <t>-81,47; -2,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-91,09; -16,77</t>
+          <t>-89,78; -14,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,07</t>
+          <t>-4,1; 0,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -0,88</t>
+          <t>-4,9; -0,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,29</t>
+          <t>-3,88; -0,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,1</t>
+          <t>-4,44; -0,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 7,77</t>
+          <t>-68,11; 14,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -17,62</t>
+          <t>-80,94; -16,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,24; -5,63</t>
+          <t>-80,38; 8,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,82; 24,12</t>
+          <t>-93,69; 13,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,18</t>
+          <t>-2,1; 1,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,8</t>
+          <t>-2,25; 0,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,22</t>
+          <t>-3,16; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,2</t>
+          <t>-1,9; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 84,17</t>
+          <t>-62,0; 94,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,81; 63,69</t>
+          <t>-69,89; 83,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 15,34</t>
+          <t>-77,74; 24,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 120,51</t>
+          <t>-65,5; 110,98</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,08</t>
+          <t>-4,16; 0,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,66</t>
+          <t>0,32; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,12</t>
+          <t>-2,03; 1,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,12</t>
+          <t>-2,54; 1,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,07; 8,04</t>
+          <t>-81,29; 12,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 458,41</t>
+          <t>4,31; 496,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,06; 95,82</t>
+          <t>-72,82; 109,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,33; 89,6</t>
+          <t>-67,42; 124,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,11</t>
+          <t>-2,32; 2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,21</t>
+          <t>0,19; 4,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,14</t>
+          <t>0,35; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,34</t>
+          <t>-0,21; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 163,49</t>
+          <t>-63,42; 154,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1002,73</t>
+          <t>-18,83; 1025,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 1260,76</t>
+          <t>-14,51; 1283,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 370,31</t>
+          <t>-18,83; 360,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,13</t>
+          <t>-1,07; 3,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,5</t>
+          <t>-1,66; 3,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,51</t>
+          <t>0,78; 5,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,98</t>
+          <t>-1,28; 3,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 446,33</t>
+          <t>-47,28; 592,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 257,59</t>
+          <t>-49,16; 328,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 848,81</t>
+          <t>19,7; 1032,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 235,27</t>
+          <t>-43,63; 254,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 7,43</t>
+          <t>0,43; 7,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,61</t>
+          <t>-1,94; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,39</t>
+          <t>-0,86; 5,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,63</t>
+          <t>1,03; 5,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 668,7</t>
+          <t>-2,94; 590,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 255,71</t>
+          <t>-39,87; 260,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 272,99</t>
+          <t>-20,95; 287,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,9; 283,73</t>
+          <t>21,55; 275,53</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,18</t>
+          <t>-1,88; -0,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,65</t>
+          <t>-0,93; 0,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,66</t>
+          <t>-0,92; 0,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,21</t>
+          <t>-0,47; 1,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -4,37</t>
+          <t>-44,11; -4,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 26,38</t>
+          <t>-28,67; 30,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 30,67</t>
+          <t>-30,78; 29,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 71,91</t>
+          <t>-17,97; 72,31</t>
         </is>
       </c>
     </row>
